--- a/data/helpdoc/DND/08_拉尼卡公会长指南GGR.xlsx
+++ b/data/helpdoc/DND/08_拉尼卡公会长指南GGR.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9300"/>
+    <workbookView windowWidth="18530" windowHeight="7270" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="GGR法术" sheetId="4" r:id="rId1"/>
@@ -306,7 +306,7 @@
     <t>Tag</t>
   </si>
   <si>
-    <t>5e 思想编码</t>
+    <t>思想编码</t>
   </si>
   <si>
     <t/>
@@ -931,7 +931,14 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1401,51 +1408,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1455,111 +1459,124 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1910,19 +1927,19 @@
   <sheetPr/>
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="2" width="20" style="3" customWidth="1"/>
-    <col min="3" max="3" width="93.2222222222222" style="2" customWidth="1"/>
-    <col min="4" max="4" width="29.3333333333333" style="3" customWidth="1"/>
+    <col min="3" max="3" width="93.2181818181818" style="2" customWidth="1"/>
+    <col min="4" max="4" width="29.3363636363636" style="3" customWidth="1"/>
     <col min="5" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:6">
+    <row r="1" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1938,11 +1955,11 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:6">
+    <row r="2" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -1955,62 +1972,81 @@
       <c r="D2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" customHeight="1" spans="1:3">
+      <c r="E2" s="1"/>
+      <c r="F2" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
-    </row>
-    <row r="4" s="1" customFormat="1" customHeight="1" spans="1:3">
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
-    </row>
-    <row r="5" s="1" customFormat="1" customHeight="1" spans="1:3">
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
-    </row>
-    <row r="6" s="1" customFormat="1" customHeight="1" spans="1:3">
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
-    </row>
-    <row r="7" s="1" customFormat="1" customHeight="1" spans="1:3">
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
-    </row>
-    <row r="8" s="1" customFormat="1" customHeight="1" spans="1:3">
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
-    </row>
-    <row r="9" s="3" customFormat="1" spans="2:3">
-      <c r="B9" s="4"/>
-      <c r="C9" s="2"/>
-    </row>
-    <row r="10" s="3" customFormat="1" spans="2:3">
-      <c r="B10" s="4"/>
-      <c r="C10" s="2"/>
-    </row>
-    <row r="11" s="3" customFormat="1" spans="3:3">
-      <c r="C11" s="2"/>
-    </row>
-    <row r="12" s="3" customFormat="1" spans="3:3">
-      <c r="C12" s="2"/>
-    </row>
-    <row r="13" s="3" customFormat="1" spans="3:3">
-      <c r="C13" s="2"/>
-    </row>
-    <row r="14" s="3" customFormat="1" spans="3:3">
-      <c r="C14" s="2"/>
-    </row>
-    <row r="15" s="3" customFormat="1" spans="3:3">
-      <c r="C15" s="2"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" s="6" customFormat="1" spans="2:3">
+      <c r="B9" s="7"/>
+      <c r="C9" s="8"/>
+    </row>
+    <row r="10" s="6" customFormat="1" spans="2:3">
+      <c r="B10" s="7"/>
+      <c r="C10" s="8"/>
+    </row>
+    <row r="11" s="6" customFormat="1" spans="3:3">
+      <c r="C11" s="8"/>
+    </row>
+    <row r="12" s="6" customFormat="1" spans="3:3">
+      <c r="C12" s="8"/>
+    </row>
+    <row r="13" s="6" customFormat="1" spans="3:3">
+      <c r="C13" s="8"/>
+    </row>
+    <row r="14" s="6" customFormat="1" spans="3:3">
+      <c r="C14" s="8"/>
+    </row>
+    <row r="15" s="6" customFormat="1" spans="3:3">
+      <c r="C15" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2029,12 +2065,12 @@
       <selection activeCell="A2" sqref="$A2:$XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.81481481481481" defaultRowHeight="13.8" customHeight="1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.81818181818182" defaultRowHeight="13.8" customHeight="1" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="16" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.81481481481481" style="1"/>
-    <col min="3" max="3" width="68.3611111111111" style="4" customWidth="1"/>
-    <col min="4" max="16384" width="9.81481481481481" style="1"/>
+    <col min="2" max="2" width="9.81818181818182" style="1"/>
+    <col min="3" max="3" width="68.3636363636364" style="5" customWidth="1"/>
+    <col min="4" max="16384" width="9.81818181818182" style="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.4" customHeight="1" spans="1:6">
@@ -2053,7 +2089,7 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2065,7 +2101,7 @@
       <c r="C2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="4" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2077,7 +2113,7 @@
       <c r="C3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="4" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2089,7 +2125,7 @@
       <c r="C4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="4" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2101,7 +2137,7 @@
       <c r="C5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="4" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2113,7 +2149,7 @@
       <c r="C6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="4" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2125,7 +2161,7 @@
       <c r="C7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="4" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2137,7 +2173,7 @@
       <c r="C8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="4" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2149,7 +2185,7 @@
       <c r="C9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="4" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2161,7 +2197,7 @@
       <c r="C10" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="4" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2173,7 +2209,7 @@
       <c r="C11" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" s="4" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2185,7 +2221,7 @@
       <c r="C12" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="4" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2197,7 +2233,7 @@
       <c r="C13" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" s="4" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2209,7 +2245,7 @@
       <c r="C14" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" s="4" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2221,7 +2257,7 @@
       <c r="C15" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" s="4" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2233,7 +2269,7 @@
       <c r="C16" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F16" s="4" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2245,7 +2281,7 @@
       <c r="C17" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F17" s="4" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2257,7 +2293,7 @@
       <c r="C18" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F18" s="4" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2269,7 +2305,7 @@
       <c r="C19" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F19" s="4" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2281,7 +2317,7 @@
       <c r="C20" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F20" s="4" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2293,7 +2329,7 @@
       <c r="C21" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F21" s="4" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2305,7 +2341,7 @@
       <c r="C22" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="F22" s="4" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2317,7 +2353,7 @@
       <c r="C23" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="F23" s="4" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2329,7 +2365,7 @@
       <c r="C24" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="F24" s="4" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2341,7 +2377,7 @@
       <c r="C25" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="F25" s="4" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2353,7 +2389,7 @@
       <c r="C26" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="F26" s="4" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2365,19 +2401,21 @@
       <c r="C27" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="F27" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" ht="14.4" customHeight="1" spans="1:3">
+      <c r="F27" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" ht="14.4" customHeight="1" spans="1:6">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
-    </row>
-    <row r="29" ht="14.4" customHeight="1" spans="1:3">
+      <c r="F28" s="4"/>
+    </row>
+    <row r="29" ht="14.4" customHeight="1" spans="1:6">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
+      <c r="F29" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2391,19 +2429,19 @@
   <sheetPr/>
   <dimension ref="A1:F56"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="20.7314814814815" style="2" customWidth="1"/>
+    <col min="1" max="1" width="20.7272727272727" style="2" customWidth="1"/>
     <col min="2" max="2" width="9" style="2"/>
     <col min="3" max="3" width="103.5" style="3" customWidth="1"/>
     <col min="4" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:6">
+    <row r="1" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2419,11 +2457,11 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:6">
+    <row r="2" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A2" s="2" t="s">
         <v>63</v>
       </c>
@@ -2431,11 +2469,13 @@
       <c r="C2" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" customHeight="1" spans="1:6">
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A3" s="2" t="s">
         <v>65</v>
       </c>
@@ -2443,11 +2483,13 @@
       <c r="C3" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" customHeight="1" spans="1:6">
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A4" s="2" t="s">
         <v>67</v>
       </c>
@@ -2455,11 +2497,13 @@
       <c r="C4" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" s="1" customFormat="1" customHeight="1" spans="1:6">
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A5" s="2" t="s">
         <v>69</v>
       </c>
@@ -2467,11 +2511,13 @@
       <c r="C5" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" s="1" customFormat="1" customHeight="1" spans="1:6">
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A6" s="2" t="s">
         <v>71</v>
       </c>
@@ -2479,11 +2525,13 @@
       <c r="C6" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" s="1" customFormat="1" customHeight="1" spans="1:6">
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A7" s="2" t="s">
         <v>73</v>
       </c>
@@ -2491,11 +2539,13 @@
       <c r="C7" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" s="1" customFormat="1" customHeight="1" spans="1:6">
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A8" s="2" t="s">
         <v>75</v>
       </c>
@@ -2503,11 +2553,13 @@
       <c r="C8" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" s="1" customFormat="1" customHeight="1" spans="1:6">
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A9" s="2" t="s">
         <v>77</v>
       </c>
@@ -2515,11 +2567,13 @@
       <c r="C9" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" s="1" customFormat="1" customHeight="1" spans="1:6">
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A10" s="2" t="s">
         <v>79</v>
       </c>
@@ -2527,11 +2581,13 @@
       <c r="C10" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" s="1" customFormat="1" customHeight="1" spans="1:6">
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A11" s="2" t="s">
         <v>81</v>
       </c>
@@ -2539,11 +2595,13 @@
       <c r="C11" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" s="1" customFormat="1" customHeight="1" spans="1:6">
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A12" s="2" t="s">
         <v>83</v>
       </c>
@@ -2551,11 +2609,13 @@
       <c r="C12" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" s="1" customFormat="1" customHeight="1" spans="1:6">
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A13" s="2" t="s">
         <v>85</v>
       </c>
@@ -2563,11 +2623,13 @@
       <c r="C13" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" s="1" customFormat="1" customHeight="1" spans="1:6">
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A14" s="2" t="s">
         <v>87</v>
       </c>
@@ -2575,11 +2637,13 @@
       <c r="C14" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" s="1" customFormat="1" customHeight="1" spans="1:6">
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A15" s="2" t="s">
         <v>89</v>
       </c>
@@ -2587,11 +2651,13 @@
       <c r="C15" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" s="1" customFormat="1" customHeight="1" spans="1:6">
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A16" s="2" t="s">
         <v>91</v>
       </c>
@@ -2599,11 +2665,13 @@
       <c r="C16" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" s="1" customFormat="1" customHeight="1" spans="1:6">
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A17" s="2" t="s">
         <v>93</v>
       </c>
@@ -2611,11 +2679,13 @@
       <c r="C17" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" s="1" customFormat="1" customHeight="1" spans="1:6">
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A18" s="2" t="s">
         <v>95</v>
       </c>
@@ -2623,11 +2693,13 @@
       <c r="C18" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" s="1" customFormat="1" customHeight="1" spans="1:6">
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A19" s="2" t="s">
         <v>97</v>
       </c>
@@ -2635,11 +2707,13 @@
       <c r="C19" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" s="1" customFormat="1" customHeight="1" spans="1:6">
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A20" s="2" t="s">
         <v>99</v>
       </c>
@@ -2647,11 +2721,13 @@
       <c r="C20" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" s="1" customFormat="1" customHeight="1" spans="1:6">
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A21" s="2" t="s">
         <v>101</v>
       </c>
@@ -2659,11 +2735,13 @@
       <c r="C21" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" s="1" customFormat="1" customHeight="1" spans="1:6">
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A22" s="2" t="s">
         <v>103</v>
       </c>
@@ -2671,11 +2749,13 @@
       <c r="C22" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="F22" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" s="1" customFormat="1" customHeight="1" spans="1:6">
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A23" s="2" t="s">
         <v>105</v>
       </c>
@@ -2683,11 +2763,13 @@
       <c r="C23" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="F23" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" s="1" customFormat="1" customHeight="1" spans="1:6">
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A24" s="2" t="s">
         <v>107</v>
       </c>
@@ -2695,11 +2777,13 @@
       <c r="C24" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="F24" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" s="1" customFormat="1" customHeight="1" spans="1:6">
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A25" s="2" t="s">
         <v>109</v>
       </c>
@@ -2707,11 +2791,13 @@
       <c r="C25" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="F25" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" s="1" customFormat="1" customHeight="1" spans="1:6">
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A26" s="2" t="s">
         <v>111</v>
       </c>
@@ -2719,11 +2805,13 @@
       <c r="C26" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="F26" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" s="1" customFormat="1" customHeight="1" spans="1:6">
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A27" s="2" t="s">
         <v>113</v>
       </c>
@@ -2731,11 +2819,13 @@
       <c r="C27" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="F27" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" s="1" customFormat="1" customHeight="1" spans="1:6">
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A28" s="2" t="s">
         <v>115</v>
       </c>
@@ -2743,11 +2833,13 @@
       <c r="C28" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="F28" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" s="1" customFormat="1" customHeight="1" spans="1:6">
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A29" s="2" t="s">
         <v>117</v>
       </c>
@@ -2755,11 +2847,13 @@
       <c r="C29" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="F29" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" s="1" customFormat="1" customHeight="1" spans="1:6">
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A30" s="2" t="s">
         <v>119</v>
       </c>
@@ -2767,11 +2861,13 @@
       <c r="C30" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="F30" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" s="1" customFormat="1" customHeight="1" spans="1:6">
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A31" s="2" t="s">
         <v>121</v>
       </c>
@@ -2779,11 +2875,13 @@
       <c r="C31" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="F31" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" s="1" customFormat="1" customHeight="1" spans="1:6">
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A32" s="2" t="s">
         <v>123</v>
       </c>
@@ -2791,129 +2889,203 @@
       <c r="C32" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="F32" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" s="1" customFormat="1" customHeight="1" spans="1:3">
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
-    </row>
-    <row r="34" s="1" customFormat="1" customHeight="1" spans="1:3">
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="4"/>
+    </row>
+    <row r="34" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
-    </row>
-    <row r="35" s="1" customFormat="1" customHeight="1" spans="1:3">
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="4"/>
+    </row>
+    <row r="35" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
-    </row>
-    <row r="36" s="1" customFormat="1" customHeight="1" spans="1:3">
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="4"/>
+    </row>
+    <row r="36" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
-    </row>
-    <row r="37" s="1" customFormat="1" customHeight="1" spans="1:3">
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="4"/>
+    </row>
+    <row r="37" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
-    </row>
-    <row r="38" s="1" customFormat="1" customHeight="1" spans="1:3">
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="4"/>
+    </row>
+    <row r="38" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
-    </row>
-    <row r="39" s="1" customFormat="1" customHeight="1" spans="1:3">
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="4"/>
+    </row>
+    <row r="39" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
-    </row>
-    <row r="40" s="1" customFormat="1" customHeight="1" spans="1:3">
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="4"/>
+    </row>
+    <row r="40" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
-    </row>
-    <row r="41" s="1" customFormat="1" customHeight="1" spans="1:3">
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="4"/>
+    </row>
+    <row r="41" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
-    </row>
-    <row r="42" s="1" customFormat="1" customHeight="1" spans="1:3">
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="4"/>
+    </row>
+    <row r="42" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
-    </row>
-    <row r="43" s="1" customFormat="1" customHeight="1" spans="1:3">
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="4"/>
+    </row>
+    <row r="43" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
-    </row>
-    <row r="44" s="1" customFormat="1" customHeight="1" spans="1:3">
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="4"/>
+    </row>
+    <row r="44" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
-    </row>
-    <row r="45" s="1" customFormat="1" customHeight="1" spans="1:3">
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="4"/>
+    </row>
+    <row r="45" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
-    </row>
-    <row r="46" s="1" customFormat="1" customHeight="1" spans="1:3">
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="4"/>
+    </row>
+    <row r="46" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
-    </row>
-    <row r="47" s="1" customFormat="1" customHeight="1" spans="1:3">
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="4"/>
+    </row>
+    <row r="47" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
-    </row>
-    <row r="48" s="1" customFormat="1" customHeight="1" spans="1:3">
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="4"/>
+    </row>
+    <row r="48" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
-    </row>
-    <row r="49" s="1" customFormat="1" customHeight="1" spans="1:3">
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="4"/>
+    </row>
+    <row r="49" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
-    </row>
-    <row r="50" s="1" customFormat="1" customHeight="1" spans="1:3">
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="4"/>
+    </row>
+    <row r="50" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
-    </row>
-    <row r="51" s="1" customFormat="1" customHeight="1" spans="1:3">
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="4"/>
+    </row>
+    <row r="51" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
-    </row>
-    <row r="52" s="1" customFormat="1" customHeight="1" spans="1:3">
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="4"/>
+    </row>
+    <row r="52" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
-    </row>
-    <row r="53" s="1" customFormat="1" customHeight="1" spans="1:3">
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="4"/>
+    </row>
+    <row r="53" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
-    </row>
-    <row r="54" s="1" customFormat="1" customHeight="1" spans="1:3">
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="4"/>
+    </row>
+    <row r="54" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
-    </row>
-    <row r="55" s="1" customFormat="1" customHeight="1" spans="1:3">
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="4"/>
+    </row>
+    <row r="55" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
-    </row>
-    <row r="56" s="1" customFormat="1" customHeight="1" spans="1:3">
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="4"/>
+    </row>
+    <row r="56" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
